--- a/database/Diseño BD_Hospital.xlsx
+++ b/database/Diseño BD_Hospital.xlsx
@@ -22,8 +22,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario</author>
+  </authors>
+  <commentList>
+    <comment ref="N20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">id_persona3
+fechaatencion_his
+horaatencion_his
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">id_medicoespecialidad1
+fechaatencion_his
+horaatencion_his
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="4306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="4308">
   <si>
     <t>Cliente</t>
   </si>
@@ -12941,13 +12985,19 @@
   </si>
   <si>
     <t>tipo_exa</t>
+  </si>
+  <si>
+    <t>verificador2_his</t>
+  </si>
+  <si>
+    <t>verificador_hisclidia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12989,8 +13039,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13057,8 +13121,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -13255,11 +13325,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13424,6 +13514,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -13448,12 +13542,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17595,15 +17691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>974912</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:colOff>986118</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>974912</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:colOff>986118</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17612,7 +17708,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7485530" y="5132294"/>
+          <a:off x="7496736" y="5345206"/>
           <a:ext cx="0" cy="381001"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -17736,15 +17832,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>986117</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>963705</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>986118</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>963706</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17753,7 +17849,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7496735" y="3832412"/>
+          <a:off x="7474323" y="4034118"/>
           <a:ext cx="1" cy="369794"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -18431,11 +18527,11 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
@@ -18625,11 +18721,11 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="32"/>
@@ -18995,18 +19091,18 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="88"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
@@ -19014,11 +19110,11 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
-      <c r="Q16" s="86" t="s">
+      <c r="Q16" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="87"/>
-      <c r="S16" s="88"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="92"/>
       <c r="T16" s="29"/>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
@@ -19057,11 +19153,11 @@
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="92"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="36" t="s">
@@ -19169,12 +19265,12 @@
       </c>
       <c r="T19" s="29"/>
       <c r="U19" s="29"/>
-      <c r="V19" s="89" t="s">
+      <c r="V19" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
@@ -19215,12 +19311,12 @@
       </c>
       <c r="T20" s="29"/>
       <c r="U20" s="29"/>
-      <c r="V20" s="89" t="s">
+      <c r="V20" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
@@ -19265,12 +19361,12 @@
       </c>
       <c r="T21" s="29"/>
       <c r="U21" s="29"/>
-      <c r="V21" s="89" t="s">
+      <c r="V21" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
@@ -19427,11 +19523,11 @@
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="86" t="s">
+      <c r="L25" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="87"/>
-      <c r="N25" s="88"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="92"/>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="32"/>
@@ -19700,11 +19796,11 @@
       </c>
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
-      <c r="Q31" s="86" t="s">
+      <c r="Q31" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R31" s="87"/>
-      <c r="S31" s="88"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="92"/>
       <c r="T31" s="29"/>
       <c r="U31" s="29"/>
       <c r="V31" s="54">
@@ -19765,18 +19861,18 @@
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="86" t="s">
+      <c r="G33" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="92"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
@@ -19875,11 +19971,11 @@
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
-      <c r="L35" s="86" t="s">
+      <c r="L35" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="87"/>
-      <c r="N35" s="88"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="92"/>
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
@@ -20000,11 +20096,11 @@
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
-      <c r="Q38" s="86" t="s">
+      <c r="Q38" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="R38" s="87"/>
-      <c r="S38" s="88"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="92"/>
       <c r="T38" s="29"/>
       <c r="U38" s="29"/>
       <c r="V38" s="29"/>
@@ -20123,25 +20219,25 @@
       <c r="Y41" s="29"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="86" t="s">
+      <c r="B44" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="88"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="86" t="s">
+      <c r="G44" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="92"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
-      <c r="L44" s="86" t="s">
+      <c r="L44" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="87"/>
-      <c r="N44" s="88"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="92"/>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
@@ -20329,12 +20425,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="L17:N17"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="L44:N44"/>
@@ -20342,11 +20437,12 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="L35:N35"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="V19:Y19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20497,11 +20593,11 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="88"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="92"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O4" s="7" t="s">
@@ -20515,16 +20611,16 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="G5" s="86" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="G5" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
       <c r="O5" s="17" t="s">
         <v>3</v>
       </c>
@@ -20534,11 +20630,11 @@
       <c r="Q5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="86" t="s">
+      <c r="U5" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="V5" s="87"/>
-      <c r="W5" s="88"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="92"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -20677,11 +20773,11 @@
       <c r="Q11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="86" t="s">
+      <c r="U11" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="87"/>
-      <c r="W11" s="88"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="92"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U12" s="15" t="s">
@@ -20706,11 +20802,11 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O14" s="86" t="s">
+      <c r="O14" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="88"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="92"/>
       <c r="U14" s="3" t="s">
         <v>13</v>
       </c>
@@ -20722,16 +20818,16 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="G15" s="86" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="G15" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="88"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
       <c r="O15" s="15" t="s">
         <v>2</v>
       </c>
@@ -20824,11 +20920,11 @@
       <c r="Q18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="86" t="s">
+      <c r="U18" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="87"/>
-      <c r="W18" s="88"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="92"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -20887,11 +20983,11 @@
       <c r="D22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="86" t="s">
+      <c r="O22" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="88"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="92"/>
     </row>
     <row r="23" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
@@ -20901,11 +20997,11 @@
       <c r="D23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -20950,11 +21046,11 @@
       <c r="Q24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U24" s="86" t="s">
+      <c r="U24" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="87"/>
-      <c r="W24" s="88"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="92"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
@@ -21067,16 +21163,16 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G32" s="86" t="s">
+      <c r="G32" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
-      <c r="U32" s="86" t="s">
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
+      <c r="U32" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="V32" s="87"/>
-      <c r="W32" s="88"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="92"/>
     </row>
     <row r="33" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="7" t="s">
@@ -21088,11 +21184,11 @@
       <c r="I33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="86" t="s">
+      <c r="O33" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="88"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="92"/>
       <c r="U33" s="15" t="s">
         <v>2</v>
       </c>
@@ -21104,11 +21200,11 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
       <c r="G34" s="17" t="s">
         <v>3</v>
       </c>
@@ -21355,22 +21451,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="U18:W18"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="O14:Q14"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="G32:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21379,11 +21475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T18" sqref="Q2:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21526,11 +21622,11 @@
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
       <c r="M4" s="45" t="s">
@@ -21544,11 +21640,11 @@
       </c>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="S4" s="91"/>
-      <c r="T4" s="92"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="96"/>
       <c r="U4" s="61"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -21569,7 +21665,9 @@
       </c>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
-      <c r="M5" s="62"/>
+      <c r="M5" s="62" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="33" t="s">
         <v>49</v>
       </c>
@@ -21629,11 +21727,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="59"/>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
       <c r="H7" s="63"/>
@@ -21761,11 +21859,11 @@
       </c>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
-      <c r="M10" s="93" t="s">
+      <c r="M10" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
       <c r="P10" s="60"/>
       <c r="Q10" s="60"/>
       <c r="R10" s="67"/>
@@ -21793,7 +21891,7 @@
       </c>
       <c r="K11" s="60"/>
       <c r="L11" s="60"/>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="45" t="s">
         <v>2</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -21832,7 +21930,7 @@
       <c r="M12" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="83" t="s">
+      <c r="N12" s="84" t="s">
         <v>106</v>
       </c>
       <c r="O12" s="39" t="s">
@@ -21864,7 +21962,7 @@
       <c r="M13" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="86" t="s">
         <v>4290</v>
       </c>
       <c r="O13" s="39" t="s">
@@ -21879,11 +21977,11 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="63"/>
@@ -21896,7 +21994,7 @@
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="63"/>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="33" t="s">
         <v>77</v>
       </c>
       <c r="O14" s="39" t="s">
@@ -21934,7 +22032,7 @@
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="63"/>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="33" t="s">
         <v>81</v>
       </c>
       <c r="O15" s="39" t="s">
@@ -21942,11 +22040,11 @@
       </c>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
-      <c r="R15" s="90" t="s">
+      <c r="R15" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="91"/>
-      <c r="T15" s="92"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
       <c r="U15" s="61"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -21954,7 +22052,7 @@
       <c r="C16" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="84" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="39" t="s">
@@ -21968,7 +22066,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
       <c r="M16" s="63"/>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="33" t="s">
         <v>82</v>
       </c>
       <c r="O16" s="39" t="s">
@@ -21992,7 +22090,7 @@
       <c r="C17" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="84" t="s">
         <v>172</v>
       </c>
       <c r="E17" s="39" t="s">
@@ -22006,7 +22104,7 @@
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="63"/>
-      <c r="N17" s="83" t="s">
+      <c r="N17" s="87" t="s">
         <v>75</v>
       </c>
       <c r="O17" s="39" t="s">
@@ -22030,7 +22128,7 @@
       <c r="C18" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="88" t="s">
         <v>4288</v>
       </c>
       <c r="E18" s="82" t="s">
@@ -22038,15 +22136,15 @@
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
-      <c r="H18" s="93" t="s">
+      <c r="H18" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="63"/>
-      <c r="N18" s="83" t="s">
+      <c r="N18" s="87" t="s">
         <v>76</v>
       </c>
       <c r="O18" s="39" t="s">
@@ -22117,10 +22215,10 @@
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="33" t="s">
+      <c r="N20" s="88" t="s">
         <v>4291</v>
       </c>
       <c r="O20" s="82" t="s">
@@ -22139,11 +22237,11 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
@@ -22151,9 +22249,15 @@
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
+      <c r="M21" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="88" t="s">
+        <v>4306</v>
+      </c>
+      <c r="O21" s="82" t="s">
+        <v>10</v>
+      </c>
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
       <c r="R21" s="60"/>
@@ -22189,7 +22293,7 @@
       <c r="T22" s="60"/>
       <c r="U22" s="61"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
       <c r="C23" s="72" t="s">
         <v>13</v>
@@ -22202,19 +22306,17 @@
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="92"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
-      <c r="M23" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="N23" s="91"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="60"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="60"/>
@@ -22239,22 +22341,18 @@
       </c>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="M24" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="N24" s="101"/>
+      <c r="O24" s="92"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
-      <c r="R24" s="86" t="s">
+      <c r="R24" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="87"/>
-      <c r="T24" s="88"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="92"/>
       <c r="U24" s="61"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -22267,7 +22365,7 @@
       <c r="H25" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="85" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="39" t="s">
@@ -22275,13 +22373,13 @@
       </c>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
-      <c r="M25" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" s="39" t="s">
+      <c r="M25" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" s="98" t="s">
         <v>16</v>
       </c>
       <c r="P25" s="60"/>
@@ -22307,7 +22405,7 @@
       <c r="H26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="85" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
@@ -22315,13 +22413,13 @@
       </c>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
-      <c r="M26" s="69" t="s">
+      <c r="M26" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="39" t="s">
+      <c r="N26" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="98" t="s">
         <v>16</v>
       </c>
       <c r="P26" s="60"/>
@@ -22347,7 +22445,7 @@
       <c r="H27" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="88" t="s">
         <v>4289</v>
       </c>
       <c r="J27" s="82" t="s">
@@ -22355,9 +22453,15 @@
       </c>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
+      <c r="M27" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="98" t="s">
+        <v>16</v>
+      </c>
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
       <c r="R27" s="67"/>
@@ -22381,9 +22485,15 @@
       <c r="J28" s="60"/>
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
+      <c r="M28" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="88" t="s">
+        <v>4307</v>
+      </c>
+      <c r="O28" s="99" t="s">
+        <v>10</v>
+      </c>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
       <c r="R28" s="67"/>
@@ -22407,9 +22517,9 @@
       <c r="J29" s="79"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="60"/>
       <c r="R29" s="67"/>
@@ -22421,25 +22531,23 @@
       </c>
       <c r="U29" s="61"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59"/>
       <c r="C30" s="60"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="87"/>
-      <c r="J30" s="88"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="92"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
-      <c r="M30" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="60"/>
       <c r="R30" s="67"/>
@@ -22469,15 +22577,11 @@
       </c>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
-      <c r="M31" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="M31" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="91"/>
+      <c r="O31" s="92"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="60"/>
       <c r="R31" s="67"/>
@@ -22507,14 +22611,14 @@
       </c>
       <c r="K32" s="60"/>
       <c r="L32" s="60"/>
-      <c r="M32" s="62" t="s">
-        <v>13</v>
+      <c r="M32" s="45" t="s">
+        <v>2</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O32" s="39" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P32" s="60"/>
       <c r="Q32" s="60"/>
@@ -22545,21 +22649,21 @@
       </c>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
-      <c r="M33" s="71" t="s">
+      <c r="M33" s="62" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P33" s="60"/>
       <c r="Q33" s="60"/>
       <c r="R33" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="S33" s="31" t="s">
+      <c r="S33" s="89" t="s">
         <v>4293</v>
       </c>
       <c r="T33" s="82" t="s">
@@ -22574,19 +22678,25 @@
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="96"/>
+      <c r="M34" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="P34" s="60"/>
       <c r="Q34" s="60"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="97"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
       <c r="U34" s="61"/>
     </row>
     <row r="35" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22613,6 +22723,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="M10:O10"/>
@@ -22621,16 +22737,11 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="R15:T15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/database/Diseño BD_Hospital.xlsx
+++ b/database/Diseño BD_Hospital.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="4308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="4298">
   <si>
     <t>Cliente</t>
   </si>
@@ -12951,39 +12951,6 @@
     <t>verificador_exa</t>
   </si>
   <si>
-    <t>Laboratorio</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Mamografía</t>
-  </si>
-  <si>
-    <t>Electrocardiograma</t>
-  </si>
-  <si>
-    <t>Ecocardiograma</t>
-  </si>
-  <si>
-    <t>Electroencefalograma</t>
-  </si>
-  <si>
-    <t>Colonoscopía</t>
-  </si>
-  <si>
-    <t>Endoscopía</t>
-  </si>
-  <si>
-    <t>Colposcopía</t>
-  </si>
-  <si>
-    <t>Tomografía</t>
-  </si>
-  <si>
-    <t>Ecografía</t>
-  </si>
-  <si>
     <t>tipo_exa</t>
   </si>
   <si>
@@ -12991,13 +12958,16 @@
   </si>
   <si>
     <t>verificador_hisclidia</t>
+  </si>
+  <si>
+    <t>verificador_recfar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13040,13 +13010,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -13054,7 +13017,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13106,18 +13069,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13349,7 +13300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13482,7 +13433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13506,7 +13456,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13514,10 +13463,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -13530,24 +13486,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17644,15 +17589,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>561488</xdr:colOff>
+      <xdr:colOff>561489</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17661,8 +17606,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10287000" y="2505075"/>
-          <a:ext cx="18563" cy="552451"/>
+          <a:off x="10836088" y="2308412"/>
+          <a:ext cx="1195" cy="379321"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18527,11 +18472,11 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
@@ -18721,11 +18666,11 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="32"/>
@@ -19091,18 +19036,18 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
@@ -19110,11 +19055,11 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
-      <c r="Q16" s="90" t="s">
+      <c r="Q16" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="91"/>
-      <c r="S16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="93"/>
       <c r="T16" s="29"/>
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
@@ -19153,11 +19098,11 @@
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="90" t="s">
+      <c r="L17" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="91"/>
-      <c r="N17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="93"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="36" t="s">
@@ -19265,12 +19210,12 @@
       </c>
       <c r="T19" s="29"/>
       <c r="U19" s="29"/>
-      <c r="V19" s="93" t="s">
+      <c r="V19" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
@@ -19311,12 +19256,12 @@
       </c>
       <c r="T20" s="29"/>
       <c r="U20" s="29"/>
-      <c r="V20" s="93" t="s">
+      <c r="V20" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
@@ -19361,12 +19306,12 @@
       </c>
       <c r="T21" s="29"/>
       <c r="U21" s="29"/>
-      <c r="V21" s="93" t="s">
+      <c r="V21" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
@@ -19523,11 +19468,11 @@
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="90" t="s">
+      <c r="L25" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="91"/>
-      <c r="N25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="93"/>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="32"/>
@@ -19796,11 +19741,11 @@
       </c>
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
-      <c r="Q31" s="90" t="s">
+      <c r="Q31" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R31" s="91"/>
-      <c r="S31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="93"/>
       <c r="T31" s="29"/>
       <c r="U31" s="29"/>
       <c r="V31" s="54">
@@ -19861,18 +19806,18 @@
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="90" t="s">
+      <c r="G33" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
@@ -19971,11 +19916,11 @@
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
-      <c r="L35" s="90" t="s">
+      <c r="L35" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="91"/>
-      <c r="N35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="93"/>
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
@@ -20096,11 +20041,11 @@
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
-      <c r="Q38" s="90" t="s">
+      <c r="Q38" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="R38" s="91"/>
-      <c r="S38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="93"/>
       <c r="T38" s="29"/>
       <c r="U38" s="29"/>
       <c r="V38" s="29"/>
@@ -20219,25 +20164,25 @@
       <c r="Y41" s="29"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="90" t="s">
+      <c r="G44" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="91"/>
-      <c r="I44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="93"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
-      <c r="L44" s="90" t="s">
+      <c r="L44" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="91"/>
-      <c r="N44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="93"/>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
@@ -20425,11 +20370,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="V19:Y19"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="L44:N44"/>
@@ -20437,12 +20383,11 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="L17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20593,11 +20538,11 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="93"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O4" s="7" t="s">
@@ -20611,16 +20556,16 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="G5" s="90" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="G5" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
       <c r="O5" s="17" t="s">
         <v>3</v>
       </c>
@@ -20630,11 +20575,11 @@
       <c r="Q5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="90" t="s">
+      <c r="U5" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="V5" s="91"/>
-      <c r="W5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="93"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -20773,11 +20718,11 @@
       <c r="Q11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="91"/>
-      <c r="W11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="93"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="U12" s="15" t="s">
@@ -20802,11 +20747,11 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O14" s="90" t="s">
+      <c r="O14" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
       <c r="U14" s="3" t="s">
         <v>13</v>
       </c>
@@ -20818,16 +20763,16 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="G15" s="90" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="G15" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
       <c r="O15" s="15" t="s">
         <v>2</v>
       </c>
@@ -20920,11 +20865,11 @@
       <c r="Q18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U18" s="90" t="s">
+      <c r="U18" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="91"/>
-      <c r="W18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="93"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -20983,11 +20928,11 @@
       <c r="D22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O22" s="90" t="s">
+      <c r="O22" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="93"/>
     </row>
     <row r="23" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
@@ -20997,11 +20942,11 @@
       <c r="D23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="90" t="s">
+      <c r="G23" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -21046,11 +20991,11 @@
       <c r="Q24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U24" s="90" t="s">
+      <c r="U24" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="91"/>
-      <c r="W24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="93"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
@@ -21163,16 +21108,16 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G32" s="90" t="s">
+      <c r="G32" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="91"/>
-      <c r="I32" s="92"/>
-      <c r="U32" s="90" t="s">
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="U32" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="V32" s="91"/>
-      <c r="W32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="93"/>
     </row>
     <row r="33" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="7" t="s">
@@ -21184,11 +21129,11 @@
       <c r="I33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="90" t="s">
+      <c r="O33" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="93"/>
       <c r="U33" s="15" t="s">
         <v>2</v>
       </c>
@@ -21200,11 +21145,11 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
       <c r="G34" s="17" t="s">
         <v>3</v>
       </c>
@@ -21451,22 +21396,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="U18:W18"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="O14:Q14"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="U11:W11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="G32:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21479,7 +21424,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T18" sqref="Q2:T18"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21603,11 +21548,11 @@
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="93"/>
       <c r="P3" s="60"/>
       <c r="Q3" s="60"/>
       <c r="R3" s="60"/>
@@ -21632,7 +21577,7 @@
       <c r="M4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="33" t="s">
         <v>48</v>
       </c>
       <c r="O4" s="39" t="s">
@@ -21640,11 +21585,11 @@
       </c>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="S4" s="95"/>
-      <c r="T4" s="96"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="93"/>
       <c r="U4" s="61"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -21665,9 +21610,7 @@
       </c>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
-      <c r="M5" s="62" t="s">
-        <v>13</v>
-      </c>
+      <c r="M5" s="88"/>
       <c r="N5" s="33" t="s">
         <v>49</v>
       </c>
@@ -21676,7 +21619,7 @@
       </c>
       <c r="P5" s="60"/>
       <c r="Q5" s="60"/>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="45" t="s">
         <v>2</v>
       </c>
       <c r="S5" s="34" t="s">
@@ -21705,7 +21648,7 @@
       </c>
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="64" t="s">
         <v>50</v>
       </c>
@@ -21714,10 +21657,10 @@
       </c>
       <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
-      <c r="R6" s="65" t="s">
+      <c r="R6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="S6" s="83" t="s">
         <v>56</v>
       </c>
       <c r="T6" s="39" t="s">
@@ -21743,7 +21686,7 @@
       </c>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="90"/>
       <c r="N7" s="64" t="s">
         <v>176</v>
       </c>
@@ -21755,7 +21698,7 @@
       <c r="R7" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="82" t="s">
         <v>55</v>
       </c>
       <c r="T7" s="39" t="s">
@@ -21791,7 +21734,7 @@
       <c r="P8" s="60"/>
       <c r="Q8" s="60"/>
       <c r="R8" s="67"/>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="33" t="s">
         <v>167</v>
       </c>
       <c r="T8" s="39" t="s">
@@ -21829,7 +21772,7 @@
       <c r="P9" s="60"/>
       <c r="Q9" s="60"/>
       <c r="R9" s="67"/>
-      <c r="S9" s="68" t="s">
+      <c r="S9" s="64" t="s">
         <v>168</v>
       </c>
       <c r="T9" s="39" t="s">
@@ -21867,7 +21810,7 @@
       <c r="P10" s="60"/>
       <c r="Q10" s="60"/>
       <c r="R10" s="67"/>
-      <c r="S10" s="68" t="s">
+      <c r="S10" s="64" t="s">
         <v>169</v>
       </c>
       <c r="T10" s="39" t="s">
@@ -21902,7 +21845,7 @@
       </c>
       <c r="P11" s="60"/>
       <c r="Q11" s="60"/>
-      <c r="R11" s="66"/>
+      <c r="R11" s="67"/>
       <c r="S11" s="33" t="s">
         <v>170</v>
       </c>
@@ -21927,10 +21870,10 @@
       </c>
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
-      <c r="M12" s="70" t="s">
+      <c r="M12" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="84" t="s">
+      <c r="N12" s="82" t="s">
         <v>106</v>
       </c>
       <c r="O12" s="39" t="s">
@@ -21938,9 +21881,15 @@
       </c>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
+      <c r="R12" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="84" t="s">
+        <v>4297</v>
+      </c>
+      <c r="T12" s="80" t="s">
+        <v>10</v>
+      </c>
       <c r="U12" s="61"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -21962,7 +21911,7 @@
       <c r="M13" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="86" t="s">
+      <c r="N13" s="82" t="s">
         <v>4290</v>
       </c>
       <c r="O13" s="39" t="s">
@@ -22020,7 +21969,7 @@
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="68" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="33" t="s">
@@ -22040,19 +21989,19 @@
       </c>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
-      <c r="R15" s="94" t="s">
+      <c r="R15" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="93"/>
       <c r="U15" s="61"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="59"/>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="82" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="39" t="s">
@@ -22090,7 +22039,7 @@
       <c r="C17" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="82" t="s">
         <v>172</v>
       </c>
       <c r="E17" s="39" t="s">
@@ -22104,7 +22053,7 @@
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="63"/>
-      <c r="N17" s="87" t="s">
+      <c r="N17" s="82" t="s">
         <v>75</v>
       </c>
       <c r="O17" s="39" t="s">
@@ -22125,13 +22074,13 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="59"/>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="84" t="s">
         <v>4288</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="80" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="60"/>
@@ -22144,7 +22093,7 @@
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="63"/>
-      <c r="N18" s="87" t="s">
+      <c r="N18" s="82" t="s">
         <v>76</v>
       </c>
       <c r="O18" s="39" t="s">
@@ -22204,7 +22153,7 @@
       <c r="E20" s="60"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="77" t="s">
         <v>4287</v>
       </c>
       <c r="I20" s="31" t="s">
@@ -22218,10 +22167,10 @@
       <c r="M20" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="88" t="s">
+      <c r="N20" s="84" t="s">
         <v>4291</v>
       </c>
-      <c r="O20" s="82" t="s">
+      <c r="O20" s="80" t="s">
         <v>10</v>
       </c>
       <c r="P20" s="60"/>
@@ -22237,11 +22186,11 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
@@ -22249,13 +22198,13 @@
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="88" t="s">
-        <v>4306</v>
-      </c>
-      <c r="O21" s="82" t="s">
+      <c r="N21" s="84" t="s">
+        <v>4295</v>
+      </c>
+      <c r="O21" s="80" t="s">
         <v>10</v>
       </c>
       <c r="P21" s="60"/>
@@ -22267,13 +22216,13 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="59"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="76" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="60"/>
@@ -22283,9 +22232,9 @@
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -22295,7 +22244,7 @@
     </row>
     <row r="23" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="59"/>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="34" t="s">
@@ -22306,17 +22255,17 @@
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
-      <c r="H23" s="90" t="s">
+      <c r="H23" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="93"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="60"/>
@@ -22341,18 +22290,18 @@
       </c>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="100" t="s">
+      <c r="M24" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="N24" s="101"/>
-      <c r="O24" s="92"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="93"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
-      <c r="R24" s="90" t="s">
+      <c r="R24" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="91"/>
-      <c r="T24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="93"/>
       <c r="U24" s="61"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -22362,10 +22311,10 @@
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="85" t="s">
+      <c r="I25" s="83" t="s">
         <v>65</v>
       </c>
       <c r="J25" s="39" t="s">
@@ -22379,7 +22328,7 @@
       <c r="N25" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="O25" s="98" t="s">
+      <c r="O25" s="86" t="s">
         <v>16</v>
       </c>
       <c r="P25" s="60"/>
@@ -22405,7 +22354,7 @@
       <c r="H26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="85" t="s">
+      <c r="I26" s="83" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="39" t="s">
@@ -22413,21 +22362,21 @@
       </c>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
-      <c r="M26" s="70" t="s">
+      <c r="M26" s="69" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="98" t="s">
+      <c r="O26" s="86" t="s">
         <v>16</v>
       </c>
       <c r="P26" s="60"/>
       <c r="Q26" s="60"/>
-      <c r="R26" s="70" t="s">
+      <c r="R26" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="S26" s="85" t="s">
+      <c r="S26" s="83" t="s">
         <v>121</v>
       </c>
       <c r="T26" s="39" t="s">
@@ -22442,13 +22391,13 @@
       <c r="E27" s="60"/>
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="88" t="s">
+      <c r="I27" s="84" t="s">
         <v>4289</v>
       </c>
-      <c r="J27" s="82" t="s">
+      <c r="J27" s="80" t="s">
         <v>10</v>
       </c>
       <c r="K27" s="60"/>
@@ -22459,13 +22408,13 @@
       <c r="N27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="98" t="s">
+      <c r="O27" s="86" t="s">
         <v>16</v>
       </c>
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
       <c r="R27" s="67"/>
-      <c r="S27" s="84" t="s">
+      <c r="S27" s="82" t="s">
         <v>61</v>
       </c>
       <c r="T27" s="39" t="s">
@@ -22485,19 +22434,19 @@
       <c r="J28" s="60"/>
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
-      <c r="M28" s="81" t="s">
+      <c r="M28" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="88" t="s">
-        <v>4307</v>
-      </c>
-      <c r="O28" s="99" t="s">
+      <c r="N28" s="84" t="s">
+        <v>4296</v>
+      </c>
+      <c r="O28" s="87" t="s">
         <v>10</v>
       </c>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
       <c r="R28" s="67"/>
-      <c r="S28" s="83" t="s">
+      <c r="S28" s="81" t="s">
         <v>173</v>
       </c>
       <c r="T28" s="39" t="s">
@@ -22512,9 +22461,9 @@
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
@@ -22524,7 +22473,7 @@
       <c r="Q29" s="60"/>
       <c r="R29" s="67"/>
       <c r="S29" s="31" t="s">
-        <v>4305</v>
+        <v>4294</v>
       </c>
       <c r="T29" s="39" t="s">
         <v>10</v>
@@ -22538,16 +22487,16 @@
       <c r="E30" s="60"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
-      <c r="H30" s="90" t="s">
+      <c r="H30" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="60"/>
       <c r="R30" s="67"/>
@@ -22577,11 +22526,11 @@
       </c>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
-      <c r="M31" s="90" t="s">
+      <c r="M31" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="91"/>
-      <c r="O31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="93"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="60"/>
       <c r="R31" s="67"/>
@@ -22638,7 +22587,7 @@
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
-      <c r="H33" s="71" t="s">
+      <c r="H33" s="70" t="s">
         <v>13</v>
       </c>
       <c r="I33" s="34" t="s">
@@ -22660,13 +22609,13 @@
       </c>
       <c r="P33" s="60"/>
       <c r="Q33" s="60"/>
-      <c r="R33" s="71" t="s">
+      <c r="R33" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="S33" s="89" t="s">
+      <c r="S33" s="85" t="s">
         <v>4293</v>
       </c>
-      <c r="T33" s="82" t="s">
+      <c r="T33" s="80" t="s">
         <v>10</v>
       </c>
       <c r="U33" s="61"/>
@@ -22683,7 +22632,7 @@
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
-      <c r="M34" s="71" t="s">
+      <c r="M34" s="70" t="s">
         <v>13</v>
       </c>
       <c r="N34" s="34" t="s">
@@ -22700,34 +22649,29 @@
       <c r="U34" s="61"/>
     </row>
     <row r="35" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="75"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="H4:J4"/>
@@ -22737,6 +22681,11 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H30:J30"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="M24:O24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22747,15 +22696,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G18"/>
+  <dimension ref="B4:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G7:G17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>79</v>
       </c>
@@ -22763,18 +22712,15 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="G5" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>86</v>
       </c>
@@ -22782,15 +22728,12 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="G7" t="s">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>70</v>
       </c>
@@ -22803,11 +22746,8 @@
       <c r="E8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="26">
         <v>1</v>
       </c>
@@ -22820,11 +22760,8 @@
       <c r="E9" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G9" t="s">
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="26">
         <v>2</v>
       </c>
@@ -22837,11 +22774,8 @@
       <c r="E10" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G10" t="s">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="26">
         <v>3</v>
       </c>
@@ -22854,11 +22788,8 @@
       <c r="E11" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G11" t="s">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="26">
         <v>4</v>
       </c>
@@ -22871,11 +22802,8 @@
       <c r="E12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G12" t="s">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="26">
         <v>5</v>
       </c>
@@ -22888,11 +22816,8 @@
       <c r="E13" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G13" t="s">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="26">
         <v>6</v>
       </c>
@@ -22905,11 +22830,8 @@
       <c r="E14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s">
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="26">
         <v>7</v>
       </c>
@@ -22922,11 +22844,8 @@
       <c r="E15" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G15" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>8</v>
       </c>
@@ -22939,11 +22858,8 @@
       <c r="E16" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G16" t="s">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="26">
         <v>9</v>
       </c>
@@ -22956,11 +22872,8 @@
       <c r="E17" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G17" t="s">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>10</v>
       </c>
@@ -22987,7 +22900,7 @@
   <dimension ref="A1:B2052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/Diseño BD_Hospital.xlsx
+++ b/database/Diseño BD_Hospital.xlsx
@@ -13017,7 +13017,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13075,6 +13075,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13300,7 +13306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13485,6 +13491,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -21424,7 +21439,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="M24" sqref="M24:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21548,11 +21563,11 @@
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
       <c r="L3" s="60"/>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="92"/>
-      <c r="O3" s="93"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="97"/>
       <c r="P3" s="60"/>
       <c r="Q3" s="60"/>
       <c r="R3" s="60"/>
@@ -21567,11 +21582,11 @@
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
       <c r="M4" s="45" t="s">
@@ -21670,11 +21685,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="59"/>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
       <c r="H7" s="63"/>
@@ -21706,7 +21721,7 @@
       </c>
       <c r="U7" s="61"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="59"/>
       <c r="C8" s="45" t="s">
         <v>2</v>
@@ -21802,11 +21817,11 @@
       </c>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
-      <c r="M10" s="97" t="s">
+      <c r="M10" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="60"/>
       <c r="Q10" s="60"/>
       <c r="R10" s="67"/>
@@ -21926,11 +21941,11 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="59"/>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="63"/>
@@ -22085,11 +22100,11 @@
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="63"/>
@@ -22186,11 +22201,11 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="59"/>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
@@ -22290,10 +22305,10 @@
       </c>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="95" t="s">
+      <c r="M24" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="N24" s="96"/>
+      <c r="N24" s="99"/>
       <c r="O24" s="93"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
@@ -22487,11 +22502,11 @@
       <c r="E30" s="60"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
-      <c r="H30" s="91" t="s">
+      <c r="H30" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="92"/>
-      <c r="J30" s="93"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="97"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
       <c r="M30" s="78"/>
@@ -22526,11 +22541,11 @@
       </c>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
-      <c r="M31" s="91" t="s">
+      <c r="M31" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="92"/>
-      <c r="O31" s="93"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="97"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="60"/>
       <c r="R31" s="67"/>
